--- a/src/main/resources/datasources/france/employeFrance.xlsx
+++ b/src/main/resources/datasources/france/employeFrance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\france\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\datasources\datasources\france\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62252E7A-0363-438C-9D27-29306C223513}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A146ED20-0CD6-4D19-8C5F-1EB46F5A4EF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -52,21 +52,12 @@
     <t>778563565</t>
   </si>
   <si>
-    <t>tdiop@gmail.com</t>
-  </si>
-  <si>
     <t>771004541</t>
   </si>
   <si>
-    <t>tal@gmail.com</t>
-  </si>
-  <si>
     <t>771003265</t>
   </si>
   <si>
-    <t>ral@gmail.com</t>
-  </si>
-  <si>
     <t>771013265</t>
   </si>
   <si>
@@ -79,54 +70,9 @@
     <t>Matthieu</t>
   </si>
   <si>
-    <t>Génevièvre</t>
-  </si>
-  <si>
-    <t>Dulong</t>
-  </si>
-  <si>
-    <t>Hapsatou</t>
-  </si>
-  <si>
-    <t>Ba</t>
-  </si>
-  <si>
-    <t>Abdoulaye</t>
-  </si>
-  <si>
-    <t>NDA</t>
-  </si>
-  <si>
-    <t>MOUANGA</t>
-  </si>
-  <si>
     <t>YANG</t>
   </si>
   <si>
-    <t>Tcheung</t>
-  </si>
-  <si>
-    <t>celine</t>
-  </si>
-  <si>
-    <t>Koulibaly</t>
-  </si>
-  <si>
-    <t>Annabelle</t>
-  </si>
-  <si>
-    <t>Rossette</t>
-  </si>
-  <si>
-    <t>Depardieu</t>
-  </si>
-  <si>
-    <t>Lacritick</t>
-  </si>
-  <si>
-    <t>Willy</t>
-  </si>
-  <si>
     <t>Rodrigurez</t>
   </si>
   <si>
@@ -181,24 +127,9 @@
     <t>Romano</t>
   </si>
   <si>
-    <t>Gateau</t>
-  </si>
-  <si>
     <t>Chloe</t>
   </si>
   <si>
-    <t>Brahim</t>
-  </si>
-  <si>
-    <t>Tram</t>
-  </si>
-  <si>
-    <t>Dang</t>
-  </si>
-  <si>
-    <t>Bourdon</t>
-  </si>
-  <si>
     <t>Jean-louis</t>
   </si>
   <si>
@@ -214,13 +145,130 @@
     <t>Ansermina</t>
   </si>
   <si>
-    <t>yvette</t>
-  </si>
-  <si>
     <t>Briquello</t>
   </si>
   <si>
     <t>Irenee</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Kanto</t>
+  </si>
+  <si>
+    <t>Lafleur</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>Adjaye</t>
+  </si>
+  <si>
+    <t>Bigorno</t>
+  </si>
+  <si>
+    <t>Trama</t>
+  </si>
+  <si>
+    <t>stecy</t>
+  </si>
+  <si>
+    <t>henrina</t>
+  </si>
+  <si>
+    <t>lafleur</t>
+  </si>
+  <si>
+    <t>Diaz</t>
+  </si>
+  <si>
+    <t>julia</t>
+  </si>
+  <si>
+    <t>r.kadidja@gmail.com</t>
+  </si>
+  <si>
+    <t>Rateau</t>
+  </si>
+  <si>
+    <t>r.chloe@gmail.com</t>
+  </si>
+  <si>
+    <t>r.dimitrio@gmail.com</t>
+  </si>
+  <si>
+    <t>r.hernandez@gmail.com</t>
+  </si>
+  <si>
+    <t>k.lafleur@gmail.com</t>
+  </si>
+  <si>
+    <t>d.julia@gmail.com</t>
+  </si>
+  <si>
+    <t>BAYA</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Branahm</t>
+  </si>
+  <si>
+    <t>d.branahm@gmail.com</t>
+  </si>
+  <si>
+    <t>ljordano@gmail.com</t>
+  </si>
+  <si>
+    <t>mirella</t>
+  </si>
+  <si>
+    <t>t.mirella@gmail.com</t>
+  </si>
+  <si>
+    <t>b.jeanlouis@gmail.com</t>
+  </si>
+  <si>
+    <t>Jeanne</t>
+  </si>
+  <si>
+    <t>Castor</t>
+  </si>
+  <si>
+    <t>cjeanne@gmail.com</t>
+  </si>
+  <si>
+    <t>fmatthieu@gmail.com</t>
+  </si>
+  <si>
+    <t>jjean@gmail.com</t>
+  </si>
+  <si>
+    <t>abrad@gmail.com</t>
+  </si>
+  <si>
+    <t>a.ivan@gmail.com</t>
+  </si>
+  <si>
+    <t>bannie@gmail.com</t>
+  </si>
+  <si>
+    <t>lafleurhenrina@gmail.com</t>
+  </si>
+  <si>
+    <t>yangstecy@gmail.com</t>
+  </si>
+  <si>
+    <t>briquelloirenee@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -599,7 +647,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,10 +693,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>40</v>
@@ -660,10 +708,10 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -671,10 +719,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>29</v>
@@ -683,13 +731,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -697,25 +745,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -723,10 +771,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>27</v>
@@ -735,13 +783,13 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -749,25 +797,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -775,25 +823,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -801,10 +849,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>35</v>
@@ -813,13 +861,13 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -827,10 +875,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <v>28</v>
@@ -839,13 +887,13 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -853,10 +901,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>37</v>
@@ -865,13 +913,13 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -879,10 +927,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>29</v>
@@ -891,13 +939,13 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -905,10 +953,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>44</v>
@@ -917,13 +965,13 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -931,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -957,25 +1005,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -983,25 +1031,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1009,10 +1057,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>48</v>
@@ -1021,13 +1069,13 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1035,10 +1083,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>62</v>
@@ -1047,13 +1095,13 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1061,10 +1109,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>37</v>
@@ -1073,13 +1121,13 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1087,25 +1135,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1113,32 +1161,258 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{6EEAEC36-20CA-4CE5-983C-411133DAC22B}"/>
+    <hyperlink ref="G20" r:id="rId2" xr:uid="{74099C02-5DF2-4F6C-85B0-9EBD9AC9EF0C}"/>
+    <hyperlink ref="G19" r:id="rId3" xr:uid="{B7ADC398-AF13-4D33-8E65-40C33E96B6AC}"/>
+    <hyperlink ref="G18" r:id="rId4" xr:uid="{94160746-F6A0-4F8F-B991-B360E405CE32}"/>
+    <hyperlink ref="G17" r:id="rId5" xr:uid="{D4AACB80-C6C1-46E3-96F7-CEF03575A3EC}"/>
+    <hyperlink ref="G16" r:id="rId6" xr:uid="{A12CCD31-7CA1-41E3-8188-B77DE7B1EB78}"/>
+    <hyperlink ref="G15" r:id="rId7" xr:uid="{D59A4507-D3ED-4386-86E6-11A0E70FE054}"/>
+    <hyperlink ref="G3" r:id="rId8" xr:uid="{17C946C9-8894-4320-B363-98A13A222763}"/>
+    <hyperlink ref="G4" r:id="rId9" xr:uid="{B8775984-5A60-4CE9-9531-32098F5F93C8}"/>
+    <hyperlink ref="G5" r:id="rId10" xr:uid="{0863D5CC-D3AC-4C8D-8F7A-A135979B6603}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{C36F3EF2-06CA-4AE5-A670-A1500EAF199D}"/>
+    <hyperlink ref="G6" r:id="rId12" xr:uid="{A44333CC-FF8F-4CB1-819C-16707E0B1B5E}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{53CB165E-45B9-4FCE-987D-C9822150B633}"/>
+    <hyperlink ref="G9" r:id="rId14" xr:uid="{142B4266-D75A-4073-82FF-7F6E0746A91C}"/>
+    <hyperlink ref="G10" r:id="rId15" xr:uid="{64121F02-7F4F-4147-9976-5978F917FA87}"/>
+    <hyperlink ref="G11" r:id="rId16" xr:uid="{C42512FF-E177-4410-9F1E-4C61B8FBBC4F}"/>
+    <hyperlink ref="G12" r:id="rId17" xr:uid="{8DEB1F75-80B9-45AD-B728-66E44DBE1F10}"/>
+    <hyperlink ref="G13" r:id="rId18" xr:uid="{1EC5933D-CC43-4CC8-A9AB-6648FBD35A56}"/>
+    <hyperlink ref="G14" r:id="rId19" xr:uid="{D05CCDB6-AF5A-4319-94F5-DE69F4411212}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100654329B97B503A49AABBB110B3A1CE9F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="cbeca0e78f2af041d481eb5f034a155f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8622fd7-cec1-4731-a423-3ed22d3b9aea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bec814e9f48df65f8f22e78da7713096" ns2:_="">
+    <xsd:import namespace="d8622fd7-cec1-4731-a423-3ed22d3b9aea"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d8622fd7-cec1-4731-a423-3ed22d3b9aea" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{743F1013-88B9-4C2F-989F-8CF2595D7374}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EE4C34E-E1E2-42D4-9611-FAB0A831FD5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d8622fd7-cec1-4731-a423-3ed22d3b9aea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2A31765-9B5F-4D0F-A9A5-CCF43E5B664A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>